--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44586</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43314</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43318</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43374</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43413</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43417</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43427</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43427</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43427</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43427</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43427</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43430</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43472</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43508</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43509</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43514</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43591</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43592</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43601</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43614</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43626</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43640</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43652</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43668</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43668</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43668</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43668</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43692</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43719</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43719</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43728</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43728</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43728</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43728</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43735</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43735</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43739</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43739</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43788</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43847</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43847</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43861</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43861</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43867</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43879</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43879</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43879</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43923</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43948</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43986</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43986</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43994</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43994</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44000</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44007</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44008</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44071</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44071</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44078</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44099</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44099</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44116</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44118</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44125</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44133</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44133</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44133</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44133</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44133</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44133</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44144</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44154</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44154</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>44165</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>44180</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44186</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44271</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44284</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44300</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44307</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44307</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44319</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44350</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44365</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>44449</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>44449</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>44460</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>44482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44501</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>44501</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>44509</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>44509</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>44509</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>44536</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>44536</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>44536</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44568</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44586</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>44748</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>44750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44813</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44817</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44817</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44830</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44831</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44831</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44845</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44858</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44884</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44902</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44908</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44957</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44957</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44957</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44957</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44957</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44957</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>44957</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>44985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>44985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>45041</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>45041</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>45044</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>45063</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>45068</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>45077</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>45078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>45099</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>45099</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>45103</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>45103</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>45103</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>45129</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>45142</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44586</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43314</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43318</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43374</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43413</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43417</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43427</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43427</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43427</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43427</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43427</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43430</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43472</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43508</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43509</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43514</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43591</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43592</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43601</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43614</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43626</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43640</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43652</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43668</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43668</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43668</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43668</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43692</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43719</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43719</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43728</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43728</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43728</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43728</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43735</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43735</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43739</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43739</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43788</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43847</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43847</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43861</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43861</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43867</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43879</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43879</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43879</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43923</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43948</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43986</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43986</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43994</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43994</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44000</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44007</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44008</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44071</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44071</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44078</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44099</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44099</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44116</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44118</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44125</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44133</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44133</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44133</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44133</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44133</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44133</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44144</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44154</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44154</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>44165</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>44180</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44186</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44271</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44284</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44300</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44307</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44307</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44319</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44350</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44365</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>44449</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>44449</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>44460</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>44482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44501</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>44501</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>44509</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>44509</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>44509</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>44536</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>44536</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>44536</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44568</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44586</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>44748</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>44750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44813</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44817</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44817</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44830</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44831</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44831</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44845</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44858</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44884</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44902</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44908</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44957</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44957</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44957</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44957</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44957</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44957</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>44957</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>44985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>44985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>45041</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>45041</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>45044</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>45063</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>45068</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>45077</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>45078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>45099</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>45099</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>45103</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>45103</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>45103</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>45129</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>45142</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44586</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43314</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43318</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43374</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43413</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43417</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43427</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43427</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43427</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43427</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43427</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43430</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43472</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43508</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43509</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43514</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43591</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43592</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43601</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43614</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43626</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43640</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43652</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43668</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43668</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43668</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43668</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43692</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43719</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43719</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43728</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43728</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43728</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43728</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43735</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43735</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43739</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43739</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43788</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43847</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43847</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43861</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43861</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43867</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43879</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43879</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43879</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43923</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43948</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43986</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43986</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43994</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43994</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44000</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44007</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44008</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44071</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44071</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44078</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44099</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44099</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44116</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44118</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44125</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44133</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44133</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44133</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44133</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44133</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44133</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44144</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44154</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44154</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>44165</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>44180</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44186</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44271</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44284</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44300</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44307</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44307</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44319</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44350</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44365</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>44449</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>44449</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>44460</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>44482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44501</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>44501</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>44509</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>44509</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>44509</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>44536</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>44536</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>44536</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44568</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44586</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>44748</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>44750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44813</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44817</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44817</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44830</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44831</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44831</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44845</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44858</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44884</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44902</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44908</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44957</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44957</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44957</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44957</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44957</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44957</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>44957</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>44985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>44985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>45041</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>45041</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>45044</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>45063</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>45068</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>45077</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>45078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>45099</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>45099</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>45103</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>45103</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>45103</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>45129</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>45142</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44586</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43314</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43318</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43374</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43413</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43417</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43427</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43427</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43427</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43427</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43427</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43430</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43472</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43508</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43509</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43514</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43591</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43592</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43601</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43614</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43626</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43640</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43652</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43668</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43668</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43668</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43668</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43692</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43719</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43719</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43728</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43728</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43728</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43728</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43735</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43735</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43739</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43739</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43788</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43847</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43847</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43861</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43861</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43867</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43879</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43879</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43879</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43923</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43948</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43986</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43986</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43994</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43994</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44000</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44007</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44008</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44071</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44071</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44078</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44099</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44099</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44116</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44118</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44125</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44133</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44133</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44133</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44133</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44133</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44133</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44144</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44154</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44154</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>44165</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>44180</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44186</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44271</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44284</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44300</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44307</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44307</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44319</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44350</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44365</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>44449</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>44449</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>44460</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>44482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44501</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>44501</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>44509</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>44509</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>44509</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>44536</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>44536</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>44536</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44568</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44586</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>44748</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>44750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44813</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44817</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44817</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44830</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44831</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44831</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44845</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44858</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44884</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44902</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44908</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44957</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44957</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44957</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44957</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44957</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44957</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>44957</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>44985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>44985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>45041</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>45041</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>45044</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>45063</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>45068</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>45077</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>45078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>45099</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>45099</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>45103</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>45103</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>45103</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>45129</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>45142</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44586</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43314</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43318</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43374</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43413</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43417</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43427</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43427</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43427</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43427</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43427</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43430</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43472</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43508</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43509</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43514</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43591</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43592</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43601</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43614</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43626</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43640</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43652</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43668</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43668</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43668</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43668</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43692</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43719</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43719</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43728</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43728</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43728</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43728</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43735</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43735</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43739</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43739</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43788</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43847</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43847</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43861</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43861</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43867</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43879</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43879</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43879</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43923</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43948</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43986</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43986</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43994</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43994</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44000</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44007</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44008</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44071</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44071</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44078</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44099</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44099</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44116</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44118</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44125</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44133</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44133</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44133</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44133</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44133</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44133</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44144</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44154</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44154</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>44165</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>44180</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44186</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44271</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44284</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44300</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44307</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44307</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44319</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44350</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44365</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>44449</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>44449</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>44460</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>44482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44501</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>44501</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>44509</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>44509</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>44509</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>44536</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>44536</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>44536</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44568</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44586</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>44748</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>44750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44813</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44817</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44817</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44830</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44831</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44831</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44845</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44858</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44884</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44902</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44908</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44957</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44957</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44957</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44957</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44957</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44957</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>44957</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>44985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>44985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>45041</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>45041</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>45044</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>45063</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>45068</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>45077</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>45078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>45099</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>45099</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>45103</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>45103</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>45103</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>45129</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>45142</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44586</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43314</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43318</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43374</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43413</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43417</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43427</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43427</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43427</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43427</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43427</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43430</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43472</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43508</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43509</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43514</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43591</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43592</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43601</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43614</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43626</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43640</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43652</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43668</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43668</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43668</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43668</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43692</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43719</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43719</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43728</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43728</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43728</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43728</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43735</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43735</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43739</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43739</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43788</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43847</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43847</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43861</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43861</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43867</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43879</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43879</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43879</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43923</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43948</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43986</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43986</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43994</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43994</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44000</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44007</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44008</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44071</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44071</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44078</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44099</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44099</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44116</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44118</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44125</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44133</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44133</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44133</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44133</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44133</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44133</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44144</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44154</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44154</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>44165</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>44180</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44186</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44271</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44284</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44300</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44307</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44307</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44319</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44350</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44365</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>44449</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>44449</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>44460</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>44482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44501</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>44501</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>44509</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>44509</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>44509</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>44536</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>44536</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>44536</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44568</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44586</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>44748</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>44750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44813</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44817</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44817</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44830</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44831</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44831</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44845</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44858</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44884</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44902</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44908</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44957</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44957</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44957</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44957</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44957</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44957</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>44957</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>44985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>44985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>45041</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>45041</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>45044</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>45063</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>45068</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>45077</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>45078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>45099</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>45099</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>45103</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>45103</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>45103</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>45129</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>45142</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44586</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43314</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43318</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43374</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43413</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43417</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43427</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43427</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43427</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43427</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43427</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43430</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43472</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43508</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43509</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43514</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43591</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43592</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43601</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43614</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43626</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43640</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43652</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43668</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43668</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43668</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43668</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43692</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43719</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43719</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43728</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43728</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43728</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43728</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43735</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43735</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43739</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43739</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43788</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43847</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43847</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43861</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43861</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43867</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43879</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43879</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43879</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43923</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43948</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43986</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43986</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43994</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43994</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44000</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44007</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44008</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44071</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44071</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44078</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44099</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44099</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44116</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44118</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44125</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44133</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44133</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44133</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44133</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44133</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44133</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44144</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44154</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44154</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>44165</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>44180</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44186</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44271</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44284</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44300</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44307</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44307</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44319</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44350</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44365</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>44449</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>44449</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>44460</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>44482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44501</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>44501</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>44509</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>44509</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>44509</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>44536</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>44536</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>44536</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44568</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44586</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>44748</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>44750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44813</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44817</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44817</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44830</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44831</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44831</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44845</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44858</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44884</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44902</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44908</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44957</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44957</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44957</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44957</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44957</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44957</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>44957</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>44985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>44985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>45041</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>45041</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>45044</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>45063</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>45068</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>45077</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>45078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>45099</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>45099</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>45103</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>45103</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>45103</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>45129</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>45142</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44586</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43314</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43318</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43374</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43413</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43417</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43427</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43427</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43427</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43427</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43427</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43430</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43472</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43508</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43509</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43514</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43591</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43592</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43601</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43614</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43626</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43640</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43652</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43668</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43668</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43668</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43668</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43692</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43719</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43719</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43728</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43728</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43728</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43728</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43735</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43735</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43739</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43739</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43788</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43847</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43847</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43861</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43861</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43867</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43879</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43879</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43879</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43923</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43948</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43986</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43986</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43994</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43994</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44000</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44007</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44008</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44071</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44071</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44078</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44099</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44099</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44116</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44118</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44125</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44133</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44133</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44133</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44133</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44133</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44133</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44144</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44154</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44154</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>44165</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>44180</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44186</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44271</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44284</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44300</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44307</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44307</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44319</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44350</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44365</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>44449</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>44449</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>44460</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>44482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44501</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>44501</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>44509</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>44509</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>44509</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>44536</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>44536</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>44536</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44568</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44586</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>44748</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>44750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44813</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44817</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44817</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44830</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44831</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44831</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44845</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44858</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44884</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44902</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44908</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44957</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44957</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44957</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44957</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44957</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44957</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>44957</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>44985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>44985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>45041</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>45041</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>45044</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>45063</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>45068</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>45077</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>45078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>45099</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>45099</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>45103</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>45103</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>45103</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>45129</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>45142</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y196"/>
+  <dimension ref="A1:Y199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44586</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43314</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43318</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43374</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43413</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43417</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43427</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43427</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43427</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43427</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43427</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43430</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43472</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43508</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43509</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43514</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43591</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43592</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43601</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43614</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43626</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43640</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43652</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43668</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43668</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43668</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43668</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43692</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43719</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43719</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43728</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43728</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43728</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43728</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43735</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43735</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43739</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43739</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43788</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43847</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43847</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43861</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43861</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43867</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43879</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43879</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43879</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43923</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43948</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43986</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43986</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43994</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43994</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44000</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44007</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44008</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44071</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44071</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44078</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44099</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44099</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44116</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44118</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44125</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44133</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44133</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44133</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44133</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44133</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44133</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44144</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44154</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44154</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>44165</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>44180</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44186</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44271</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44284</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44300</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44307</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44307</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44319</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44350</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44365</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>44449</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>44449</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>44460</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>44482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44501</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>44501</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>44509</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>44509</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>44509</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>44536</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>44536</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>44536</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44568</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44586</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>44748</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>44750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44813</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44817</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44817</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44830</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44831</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44831</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44845</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44858</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44884</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44902</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44908</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44957</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44957</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44957</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44957</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44957</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44957</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>44957</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>44985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>44985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>45041</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>45041</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>45044</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>45063</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>45068</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>45077</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>45078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>45099</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>45099</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>45103</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>45103</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>45103</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>45129</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11697,7 +11697,7 @@
       </c>
       <c r="R195" s="2" t="inlineStr"/>
     </row>
-    <row r="196">
+    <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
           <t>A 34980-2023</t>
@@ -11707,7 +11707,7 @@
         <v>45142</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11753,6 +11753,177 @@
         <v>0</v>
       </c>
       <c r="R196" s="2" t="inlineStr"/>
+    </row>
+    <row r="197" ht="15" customHeight="1">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>A 42554-2023</t>
+        </is>
+      </c>
+      <c r="B197" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C197" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0</v>
+      </c>
+      <c r="O197" t="n">
+        <v>0</v>
+      </c>
+      <c r="P197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>0</v>
+      </c>
+      <c r="R197" s="2" t="inlineStr"/>
+    </row>
+    <row r="198" ht="15" customHeight="1">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>A 42602-2023</t>
+        </is>
+      </c>
+      <c r="B198" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C198" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0</v>
+      </c>
+      <c r="O198" t="n">
+        <v>0</v>
+      </c>
+      <c r="P198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>0</v>
+      </c>
+      <c r="R198" s="2" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>A 42598-2023</t>
+        </is>
+      </c>
+      <c r="B199" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C199" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" t="n">
+        <v>0</v>
+      </c>
+      <c r="P199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>0</v>
+      </c>
+      <c r="R199" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAPARANDA/artfynd/A 31667-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAPARANDA/artfynd/A 31667-2021.xlsx", "A 31667-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAPARANDA/kartor/A 31667-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAPARANDA/kartor/A 31667-2021.png", "A 31667-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAPARANDA/klagomål/A 31667-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAPARANDA/klagomål/A 31667-2021.docx", "A 31667-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAPARANDA/klagomålsmail/A 31667-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAPARANDA/klagomålsmail/A 31667-2021.docx", "A 31667-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAPARANDA/tillsyn/A 31667-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAPARANDA/tillsyn/A 31667-2021.docx", "A 31667-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAPARANDA/tillsynsmail/A 31667-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAPARANDA/tillsynsmail/A 31667-2021.docx", "A 31667-2021")</f>
         <v/>
       </c>
     </row>
@@ -662,7 +662,7 @@
         <v>44586</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,27 +714,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAPARANDA/artfynd/A 3832-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAPARANDA/artfynd/A 3832-2022.xlsx", "A 3832-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAPARANDA/kartor/A 3832-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAPARANDA/kartor/A 3832-2022.png", "A 3832-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAPARANDA/klagomål/A 3832-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAPARANDA/klagomål/A 3832-2022.docx", "A 3832-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAPARANDA/klagomålsmail/A 3832-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAPARANDA/klagomålsmail/A 3832-2022.docx", "A 3832-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAPARANDA/tillsyn/A 3832-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAPARANDA/tillsyn/A 3832-2022.docx", "A 3832-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HAPARANDA/tillsynsmail/A 3832-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HAPARANDA/tillsynsmail/A 3832-2022.docx", "A 3832-2022")</f>
         <v/>
       </c>
     </row>
@@ -748,7 +748,7 @@
         <v>43314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43314</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43318</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43374</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43413</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43417</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43427</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43427</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43427</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43427</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43427</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43430</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43472</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43508</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43509</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43514</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43591</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43592</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43601</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43614</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43626</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43640</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43652</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43668</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43668</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43668</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43668</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43692</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43719</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43719</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43728</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43728</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43728</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43728</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43735</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43735</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43739</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43739</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43788</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43847</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43847</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43861</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43861</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43867</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43879</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43879</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43879</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43923</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43948</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43986</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43986</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43994</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43994</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44000</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44007</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44008</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44071</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44071</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44078</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44099</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44099</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44116</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44118</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44125</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44133</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44133</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44133</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44133</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44133</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44133</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44144</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44154</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44154</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>44165</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>44180</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44186</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44271</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44284</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44300</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44307</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44307</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44319</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44350</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44365</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>44449</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>44449</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>44460</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>44482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44501</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>44501</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>44509</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>44509</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>44509</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>44536</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>44536</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>44536</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44568</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44586</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>44748</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>44750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44813</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44817</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44817</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44830</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44831</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44831</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44845</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44858</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44884</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44902</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44908</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44957</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44957</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44957</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44957</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44957</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44957</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>44957</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>44985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>44985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>45041</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>45041</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>45044</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>45063</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>45068</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>45077</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>45078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>45099</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>45099</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>45103</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>45103</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>45103</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>45129</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>45142</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>45181</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>45181</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>45181</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44586</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43314</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43318</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43374</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43413</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43417</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43427</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43427</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43427</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43427</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43427</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43430</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43472</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43508</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43509</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43514</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43591</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43592</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43601</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43614</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43626</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43640</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43652</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43668</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43668</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43668</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43668</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43692</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43719</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43719</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43728</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43728</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43728</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43728</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43735</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43735</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43739</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43739</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43788</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43847</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43847</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43861</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43861</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43867</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43879</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43879</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43879</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43923</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43948</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43986</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43986</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43994</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43994</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44000</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44007</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44008</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44071</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44071</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44078</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44099</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44099</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44116</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44118</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44125</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44133</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44133</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44133</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44133</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44133</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44133</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44144</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44154</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44154</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>44165</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>44180</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44186</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44271</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44284</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44300</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44307</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44307</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44319</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44350</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44365</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>44449</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>44449</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>44460</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>44482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44501</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>44501</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>44509</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>44509</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>44509</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>44536</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>44536</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>44536</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44568</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44586</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>44748</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>44750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44813</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44817</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44817</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44830</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44831</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44831</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44845</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44858</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44884</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44902</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44908</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44957</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44957</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44957</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44957</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44957</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44957</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>44957</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>44985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>44985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>45041</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>45041</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>45044</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>45063</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>45068</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>45077</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>45078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>45099</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>45099</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>45103</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>45103</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>45103</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>45129</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>45142</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>45181</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>45181</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>45181</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44586</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43314</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43318</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43374</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43413</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43417</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43427</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43427</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43427</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43427</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43427</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43430</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43472</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43508</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43509</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43514</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43591</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43592</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43601</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43614</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43626</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43640</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43652</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43668</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43668</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43668</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43668</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43692</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43719</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43719</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43728</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43728</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43728</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43728</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43735</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43735</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43739</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43739</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43788</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43847</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43847</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43861</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43861</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43867</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43879</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43879</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43879</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43923</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43948</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43986</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43986</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43994</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43994</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44000</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44007</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44008</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44071</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44071</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44078</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44099</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44099</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44116</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44118</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44125</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44133</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44133</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44133</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44133</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44133</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44133</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44144</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44154</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44154</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>44165</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>44180</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44186</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44271</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44284</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44300</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44307</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44307</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44319</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44350</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44365</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>44449</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>44449</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>44460</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>44482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44501</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>44501</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>44509</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>44509</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>44509</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>44536</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>44536</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>44536</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44568</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44586</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>44748</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>44750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44813</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44817</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44817</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44830</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44831</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44831</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44845</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44858</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44884</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44902</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44908</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44957</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44957</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44957</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44957</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44957</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44957</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>44957</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>44985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>44985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>45041</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>45041</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>45044</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>45063</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>45068</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>45077</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>45078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>45099</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>45099</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>45103</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>45103</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>45103</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>45129</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>45142</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>45181</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>45181</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>45181</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44586</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43314</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43318</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43374</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43413</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43417</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43427</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43427</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43427</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43427</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43427</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43430</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43472</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43508</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43509</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43514</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43591</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43592</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43601</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43614</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43626</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43640</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43652</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43668</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43668</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43668</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43668</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43692</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43719</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43719</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43728</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43728</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43728</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43728</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43735</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43735</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43739</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43739</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43788</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43847</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43847</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43861</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43861</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43867</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43879</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43879</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43879</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43923</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43948</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43986</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43986</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43994</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43994</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44000</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44007</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44008</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44071</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44071</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44078</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44099</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44099</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44116</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44118</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44125</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44133</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44133</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44133</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44133</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44133</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44133</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44144</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44154</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44154</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>44165</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>44180</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44186</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44271</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44284</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44300</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44307</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44307</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44319</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44350</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44365</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>44449</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>44449</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>44460</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>44482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44501</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>44501</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>44509</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>44509</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>44509</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>44536</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>44536</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>44536</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44568</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44586</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>44748</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>44750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44813</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44817</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44817</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44830</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44831</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44831</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44845</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44858</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44884</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44902</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44908</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44957</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44957</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44957</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44957</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44957</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44957</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>44957</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>44985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>44985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>45041</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>45041</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>45044</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>45063</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>45068</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>45077</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>45078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>45099</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>45099</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>45103</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>45103</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>45103</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>45129</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>45142</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>45181</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>45181</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>45181</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44586</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43314</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43318</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43374</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43413</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43417</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43427</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43427</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43427</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43427</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43427</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43430</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43472</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43508</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43509</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43514</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43591</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43592</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43601</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43614</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43626</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43640</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43652</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43668</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43668</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43668</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43668</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43692</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43719</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43719</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43728</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43728</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43728</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43728</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43735</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43735</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43739</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43739</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43788</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43847</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43847</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43861</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43861</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43867</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43879</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43879</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43879</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43923</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43948</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43986</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43986</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43994</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43994</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44000</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44007</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44008</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44071</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44071</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44078</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44099</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44099</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44116</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44118</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44125</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44133</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44133</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44133</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44133</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44133</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44133</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44144</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44154</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44154</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>44165</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>44180</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44186</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44271</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44284</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44300</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44307</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44307</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44319</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44350</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44365</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>44449</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>44449</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>44460</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>44482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44501</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>44501</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>44509</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>44509</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>44509</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>44536</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>44536</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>44536</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44568</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44586</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>44748</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>44750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44813</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44817</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44817</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44830</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44831</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44831</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44845</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44858</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44884</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44902</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44908</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44957</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44957</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44957</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44957</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44957</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44957</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>44957</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>44985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>44985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>45041</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>45041</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>45044</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>45063</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>45068</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>45077</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>45078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>45099</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>45099</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>45103</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>45103</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>45103</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>45129</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>45142</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>45181</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>45181</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>45181</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y199"/>
+  <dimension ref="A1:Y200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44586</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43314</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43318</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43374</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43413</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43417</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43427</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43427</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43427</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43427</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43427</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43430</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43472</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43508</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43509</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43514</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43591</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43592</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43601</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43614</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43626</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43640</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43652</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43668</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43668</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43668</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43668</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43692</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43719</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43719</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43728</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43728</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43728</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43728</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43735</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43735</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43739</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43739</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43788</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43847</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43847</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43861</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43861</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43867</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43879</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43879</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43879</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43923</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43948</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43986</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43986</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43994</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43994</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44000</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44007</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44008</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44071</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44071</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44078</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44099</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44099</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44116</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44118</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44125</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44133</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44133</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44133</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44133</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44133</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44133</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44144</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44154</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44154</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>44165</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>44180</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44186</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44271</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44284</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44300</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44307</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44307</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44319</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44350</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44365</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>44449</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>44449</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>44460</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>44482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44501</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>44501</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>44509</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>44509</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>44509</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>44536</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>44536</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>44536</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44568</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44586</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>44748</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>44750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44813</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44817</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44817</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44830</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44831</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44831</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44845</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44858</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44884</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44902</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44908</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44957</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44957</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44957</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44957</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44957</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44957</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>44957</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>44985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>44985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>45041</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>45041</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>45044</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>45063</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>45068</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>45077</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>45078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>45099</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>45099</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>45103</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>45103</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>45103</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>45129</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>45142</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>45181</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>45181</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="R198" s="2" t="inlineStr"/>
     </row>
-    <row r="199">
+    <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
           <t>A 42598-2023</t>
@@ -11878,7 +11878,7 @@
         <v>45181</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11924,6 +11924,63 @@
         <v>0</v>
       </c>
       <c r="R199" s="2" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>A 46301-2023</t>
+        </is>
+      </c>
+      <c r="B200" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C200" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>HAPARANDA</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" t="n">
+        <v>0</v>
+      </c>
+      <c r="P200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>0</v>
+      </c>
+      <c r="R200" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44586</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43314</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43318</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43374</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43413</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43417</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43427</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43427</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43427</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43427</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43427</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43430</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43472</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43508</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43509</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43514</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43591</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43592</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43601</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43614</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43626</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43640</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43652</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43668</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43668</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43668</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43668</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43692</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43719</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43719</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43728</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43728</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43728</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43728</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43735</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43735</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43739</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43739</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43788</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43847</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43847</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43861</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43861</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43867</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43879</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43879</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43879</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43923</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43948</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43986</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43986</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43994</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43994</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44000</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44007</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44008</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44071</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44071</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44078</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44099</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44099</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44116</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44118</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44125</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44133</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44133</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44133</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44133</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44133</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44133</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44144</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44154</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44154</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>44165</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>44180</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44186</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44271</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44284</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44300</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44307</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44307</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44319</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44350</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44365</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>44449</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>44449</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>44460</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>44482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44501</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>44501</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>44509</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>44509</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>44509</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>44536</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>44536</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>44536</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44568</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44586</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>44748</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>44750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44813</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44817</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44817</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44830</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44831</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44831</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44845</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44858</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44884</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44902</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44908</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44957</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44957</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44957</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44957</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44957</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44957</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>44957</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>44985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>44985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>45041</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>45041</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>45044</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>45063</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>45068</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>45077</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>45078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>45099</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>45099</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>45103</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>45103</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>45103</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>45129</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>45142</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>45181</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>45181</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>45181</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>45197</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44586</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43314</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43318</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43374</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43413</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43417</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43427</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43427</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43427</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43427</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43427</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43430</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43472</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43508</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43509</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43514</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43591</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43592</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43601</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43614</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43626</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43640</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43652</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43668</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43668</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43668</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43668</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43692</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43719</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43719</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43728</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43728</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43728</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43728</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43735</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43735</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43739</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43739</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43788</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43847</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43847</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43861</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43861</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43867</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43879</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43879</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43879</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43923</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43948</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43986</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43986</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43994</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43994</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44000</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44007</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44008</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44071</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44071</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44078</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44099</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44099</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44116</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44118</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44125</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44133</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44133</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44133</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44133</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44133</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44133</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44144</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44154</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44154</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>44165</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>44180</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44186</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44271</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44284</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44300</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44307</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44307</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44319</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44350</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44365</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>44449</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>44449</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>44460</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>44482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44501</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>44501</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>44509</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>44509</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>44509</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>44536</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>44536</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>44536</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44568</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44586</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>44748</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>44750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44813</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44817</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44817</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44830</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44831</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44831</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44845</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44858</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44884</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44902</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44908</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44957</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44957</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44957</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44957</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44957</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44957</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>44957</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>44985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>44985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>45041</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>45041</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>45044</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>45063</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>45068</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>45077</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>45078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>45099</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>45099</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>45103</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>45103</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>45103</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>45129</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>45142</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>45181</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>45181</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>45181</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>45197</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44586</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43314</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43318</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43374</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43413</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43417</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43427</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43427</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43427</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43427</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43427</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43430</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43472</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43508</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43509</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43514</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43591</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43592</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43601</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43614</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43626</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43640</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43652</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43668</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43668</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43668</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43668</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43692</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43719</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43719</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43728</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43728</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43728</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43728</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43735</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43735</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43739</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43739</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43788</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43847</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43847</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43861</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43861</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43867</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43879</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43879</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43879</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43923</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43948</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43986</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43986</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43994</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43994</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44000</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44007</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44008</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44071</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44071</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44078</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44099</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44099</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44116</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44118</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44125</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44133</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44133</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44133</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44133</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44133</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44133</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44144</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44154</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44154</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>44165</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>44180</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44186</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44271</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44284</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44300</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44307</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44307</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44319</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44350</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44365</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>44449</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>44449</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>44460</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>44482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44501</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>44501</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>44509</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>44509</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>44509</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>44536</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>44536</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>44536</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44568</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44586</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>44748</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>44750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44813</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44817</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44817</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44830</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44831</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44831</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44845</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44858</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44884</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44902</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44908</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44957</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44957</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44957</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44957</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44957</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44957</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>44957</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>44985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>44985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>45041</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>45041</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>45044</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>45063</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>45068</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>45077</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>45078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>45099</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>45099</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>45103</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>45103</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>45103</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>45129</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>45142</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>45181</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>45181</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>45181</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>45197</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>

--- a/Översikt HAPARANDA.xlsx
+++ b/Översikt HAPARANDA.xlsx
@@ -572,7 +572,7 @@
         <v>44369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>44586</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43314</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>43314</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>43318</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         <v>43374</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         <v>43413</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>43413</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43417</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>43420</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         <v>43427</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         <v>43427</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43427</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43427</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>43427</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>43427</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1608,7 +1608,7 @@
         <v>43430</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>43440</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>43448</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>43472</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         <v>43472</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         <v>43481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>43508</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>43509</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43514</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>43518</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>43518</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43518</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
         <v>43542</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>43542</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>43542</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         <v>43591</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         <v>43591</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>43592</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2805,7 +2805,7 @@
         <v>43592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>43592</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2919,7 +2919,7 @@
         <v>43601</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         <v>43601</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         <v>43601</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>43601</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>43614</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>43614</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>43626</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         <v>43640</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>43652</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3489,7 +3489,7 @@
         <v>43668</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
         <v>43668</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>43668</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>43668</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         <v>43692</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>43719</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         <v>43719</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43719</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
         <v>43719</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>43720</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43728</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
         <v>43728</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
         <v>43728</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43728</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43728</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>43735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>43735</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>43735</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>43739</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>43739</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>43739</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43776</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>43788</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43847</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>43847</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         <v>43850</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43861</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43861</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43867</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43879</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43879</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>43879</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
         <v>43923</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         <v>43923</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         <v>43936</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>43938</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43938</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>43948</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5945,7 +5945,7 @@
         <v>43948</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6002,7 +6002,7 @@
         <v>43986</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>43986</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43994</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43994</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6230,7 +6230,7 @@
         <v>44000</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
         <v>44007</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
         <v>44008</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44012</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44071</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44071</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44078</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44099</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44099</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44116</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44118</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44125</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44130</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44130</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44133</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44133</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44133</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44133</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44133</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44133</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44133</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44144</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44154</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44154</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7712,7 +7712,7 @@
         <v>44165</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>44165</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>44169</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>44180</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>44186</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>44251</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44271</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44284</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8168,7 +8168,7 @@
         <v>44300</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44307</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8282,7 +8282,7 @@
         <v>44307</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44319</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>44350</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
         <v>44365</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44379</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8567,7 +8567,7 @@
         <v>44449</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>44449</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>44449</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>44456</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>44456</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>44460</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>44482</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44501</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9023,7 +9023,7 @@
         <v>44501</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9080,7 +9080,7 @@
         <v>44509</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
         <v>44509</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9194,7 +9194,7 @@
         <v>44509</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9251,7 +9251,7 @@
         <v>44536</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9308,7 +9308,7 @@
         <v>44536</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         <v>44536</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>44568</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9479,7 +9479,7 @@
         <v>44586</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         <v>44748</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         <v>44750</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
         <v>44813</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>44817</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44817</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         <v>44830</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         <v>44831</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -9940,7 +9940,7 @@
         <v>44831</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -9997,7 +9997,7 @@
         <v>44845</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>44858</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44861</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>44884</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10225,7 +10225,7 @@
         <v>44902</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10282,7 +10282,7 @@
         <v>44907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10339,7 +10339,7 @@
         <v>44908</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>44949</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44957</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44957</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>44957</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44957</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44957</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
         <v>44957</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>44957</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>44985</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>44985</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>45041</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>45041</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>45044</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>45063</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>45068</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>45077</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>45078</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>45099</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>45099</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>45103</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>45103</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>45103</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>45129</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>45142</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>45181</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>45181</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>45181</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>45197</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
